--- a/Amadeus_GRS/DataSheet.xlsx
+++ b/Amadeus_GRS/DataSheet.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="2505" windowWidth="10755" windowHeight="3480" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Login" sheetId="1" r:id="rId1"/>
+    <sheet name="ManageRegions" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Username</t>
   </si>
@@ -34,6 +34,24 @@
   </si>
   <si>
     <t>superuser</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Region From</t>
+  </si>
+  <si>
+    <t>Region To</t>
+  </si>
+  <si>
+    <t>New eastern region</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARGENTINA,UNITED STATES OF AMERICA </t>
   </si>
 </sst>
 </file>
@@ -400,8 +418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -442,13 +460,59 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="2" width="22.42578125" customWidth="1"/>
+    <col min="3" max="3" width="36" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
